--- a/spliced/walkingToRunning/2023-03-30_14-27-51/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-27-51/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-7.558236122131348</v>
+        <v>2.669549942016602</v>
       </c>
       <c r="D2" t="n">
-        <v>-11.54725742340088</v>
+        <v>-27.01569938659668</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.366233348846436</v>
+        <v>1.220865488052368</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2323529118577299</v>
+        <v>0.8970553824457185</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99577405316345</v>
+        <v>-0.2614919603881221</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.971809049310575</v>
+        <v>-0.8384511420282582</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-7.292168617248535</v>
+        <v>-9.358198165893556</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.43182897567749</v>
+        <v>-20.71603393554688</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.859290599822998</v>
+        <v>-7.516577243804932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.42024119551909</v>
+        <v>-0.4747457169627652</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5193942967107517</v>
+        <v>0.1235830856455553</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.513404460276592</v>
+        <v>2.941044032415826</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.19073486328125</v>
+        <v>-13.51923274993896</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.0089111328125</v>
+        <v>-8.136168479919434</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.00853443145752</v>
+        <v>-7.273739814758301</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1340822670293074</v>
+        <v>0.6183352183740025</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.154626976635499</v>
+        <v>-0.2533354612730362</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.524474680423737</v>
+        <v>0.0438180289910041</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-16.53120613098145</v>
+        <v>-7.558236122131348</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.607099056243896</v>
+        <v>-11.54725742340088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.276792049407959</v>
+        <v>-2.366233348846436</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4547065528015019</v>
+        <v>0.2323529118577299</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6670010999097716</v>
+        <v>1.99577405316345</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1219344166881118</v>
+        <v>-1.971809049310575</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.55709171295166</v>
+        <v>-7.292168617248535</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.43513488769531</v>
+        <v>-5.43182897567749</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.060164451599121</v>
+        <v>-1.859290599822998</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1632935243769215</v>
+        <v>0.42024119551909</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.267501022350991</v>
+        <v>-0.5193942967107517</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.733805928316158</v>
+        <v>-1.513404460276592</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.290600776672363</v>
+        <v>-6.19073486328125</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.404523849487305</v>
+        <v>-5.0089111328125</v>
       </c>
       <c r="E7" t="n">
-        <v>9.77668571472168</v>
+        <v>-5.00853443145752</v>
       </c>
       <c r="F7" t="n">
-        <v>1.678417857420652</v>
+        <v>0.1340822670293074</v>
       </c>
       <c r="G7" t="n">
-        <v>1.337361679238797</v>
+        <v>-0.154626976635499</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.577607195256125</v>
+        <v>-1.524474680423737</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.725464344024658</v>
+        <v>-16.53120613098145</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.71722602844238</v>
+        <v>-4.607099056243896</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.773126602172852</v>
+        <v>0.276792049407959</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.108878275600511</v>
+        <v>-0.4547065528015019</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9978605397676845</v>
+        <v>-0.6670010999097716</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5690611009880358</v>
+        <v>0.1219344166881118</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.2208814620971679</v>
+        <v>-4.55709171295166</v>
       </c>
       <c r="D9" t="n">
-        <v>-29.22537994384766</v>
+        <v>-19.43513488769531</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.326999664306641</v>
+        <v>-7.060164451599121</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.319620092036361</v>
+        <v>-0.1632935243769215</v>
       </c>
       <c r="G9" t="n">
-        <v>2.702669687190279</v>
+        <v>-1.267501022350991</v>
       </c>
       <c r="H9" t="n">
-        <v>3.955988294997444</v>
+        <v>-1.733805928316158</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-30.18045997619629</v>
+        <v>-1.290600776672363</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.106259346008301</v>
+        <v>-3.404523849487305</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.336086273193359</v>
+        <v>9.77668571472168</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.884191094818762</v>
+        <v>1.678417857420652</v>
       </c>
       <c r="G10" t="n">
-        <v>2.429627870099019</v>
+        <v>1.337361679238797</v>
       </c>
       <c r="H10" t="n">
-        <v>5.183373525991279</v>
+        <v>-3.577607195256125</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-28.01585388183594</v>
+        <v>-2.725464344024658</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.60748767852783</v>
+        <v>-15.71722602844238</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.628327369689941</v>
+        <v>-1.773126602172852</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9754154722569472</v>
+        <v>-1.108878275600511</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.997867519572641</v>
+        <v>-0.9978605397676845</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7411238864316898</v>
+        <v>0.5690611009880358</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.033831596374512</v>
+        <v>-0.2208814620971679</v>
       </c>
       <c r="D12" t="n">
-        <v>-20.5565071105957</v>
+        <v>-29.22537994384766</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.63080787658692</v>
+        <v>-4.326999664306641</v>
       </c>
       <c r="F12" t="n">
-        <v>2.564180643376662</v>
+        <v>-1.319620092036361</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.320737330590262</v>
+        <v>2.702669687190279</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.21195284693929</v>
+        <v>3.955988294997444</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46.15228271484375</v>
+        <v>-30.18045997619629</v>
       </c>
       <c r="D13" t="n">
-        <v>6.39080286026001</v>
+        <v>-3.106259346008301</v>
       </c>
       <c r="E13" t="n">
-        <v>16.86857604980469</v>
+        <v>-5.336086273193359</v>
       </c>
       <c r="F13" t="n">
-        <v>4.649666024466685</v>
+        <v>-4.884191094818762</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.874780806444464</v>
+        <v>2.429627870099019</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4834878709704054</v>
+        <v>5.183373525991279</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-12.0808572769165</v>
+        <v>-28.01585388183594</v>
       </c>
       <c r="D14" t="n">
-        <v>1.62255322933197</v>
+        <v>-10.60748767852783</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.056400775909424</v>
+        <v>-5.628327369689941</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0025165415669</v>
+        <v>0.9754154722569472</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4837598439495385</v>
+        <v>-2.997867519572641</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.280407503113078</v>
+        <v>-0.7411238864316898</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-11.0537633895874</v>
+        <v>3.033831596374512</v>
       </c>
       <c r="D15" t="n">
-        <v>-42.16847610473633</v>
+        <v>-20.5565071105957</v>
       </c>
       <c r="E15" t="n">
-        <v>6.546759128570557</v>
+        <v>-19.63080787658692</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.006519524727852</v>
+        <v>2.564180643376662</v>
       </c>
       <c r="G15" t="n">
-        <v>1.548193707304488</v>
+        <v>-3.320737330590262</v>
       </c>
       <c r="H15" t="n">
-        <v>2.943372968900025</v>
+        <v>-3.21195284693929</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.753406047821045</v>
+        <v>46.15228271484375</v>
       </c>
       <c r="D16" t="n">
-        <v>1.232700347900391</v>
+        <v>6.39080286026001</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.96573448181152</v>
+        <v>16.86857604980469</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.41962250814602</v>
+        <v>4.649666024466685</v>
       </c>
       <c r="G16" t="n">
-        <v>4.90418978969931</v>
+        <v>-1.874780806444464</v>
       </c>
       <c r="H16" t="n">
-        <v>3.12689200195215</v>
+        <v>-0.4834878709704054</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-24.26501083374023</v>
+        <v>-12.0808572769165</v>
       </c>
       <c r="D17" t="n">
-        <v>-16.1025276184082</v>
+        <v>1.62255322933197</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0206184387207031</v>
+        <v>-1.056400775909424</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.074812318308926</v>
+        <v>1.0025165415669</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.687652131258382</v>
+        <v>0.4837598439495385</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3980861830256872</v>
+        <v>-3.280407503113078</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.58524227142334</v>
+        <v>-11.0537633895874</v>
       </c>
       <c r="D18" t="n">
-        <v>-32.96889877319336</v>
+        <v>-42.16847610473633</v>
       </c>
       <c r="E18" t="n">
-        <v>19.44017219543457</v>
+        <v>6.546759128570557</v>
       </c>
       <c r="F18" t="n">
-        <v>2.882893306218964</v>
+        <v>-4.006519524727852</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.573564957764209</v>
+        <v>1.548193707304488</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.314060277289736</v>
+        <v>2.943372968900025</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.066184997558594</v>
+        <v>-1.753406047821045</v>
       </c>
       <c r="D19" t="n">
-        <v>4.324060440063477</v>
+        <v>1.232700347900391</v>
       </c>
       <c r="E19" t="n">
-        <v>3.93980073928833</v>
+        <v>-26.96573448181152</v>
       </c>
       <c r="F19" t="n">
-        <v>6.499037447622277</v>
+        <v>-9.41962250814602</v>
       </c>
       <c r="G19" t="n">
-        <v>4.13717439619163</v>
+        <v>4.90418978969931</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.053133794816869</v>
+        <v>3.12689200195215</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.809474468231201</v>
+        <v>-24.26501083374023</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.948239803314209</v>
+        <v>-16.1025276184082</v>
       </c>
       <c r="E20" t="n">
-        <v>5.694517135620117</v>
+        <v>0.0206184387207031</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6406787679356816</v>
+        <v>-1.074812318308926</v>
       </c>
       <c r="G20" t="n">
-        <v>1.996182547282352</v>
+        <v>-4.687652131258382</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.02198917330320072</v>
+        <v>0.3980861830256872</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>6.58524227142334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-32.96889877319336</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19.44017219543457</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.882893306218964</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-2.573564957764209</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-5.314060277289736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8.066184997558594</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.324060440063477</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.93980073928833</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.499037447622277</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.13717439619163</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-5.053133794816869</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6.809474468231201</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.948239803314209</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.694517135620117</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6406787679356816</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.996182547282352</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.02198917330320072</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>-36.60982131958008</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>-23.81085586547852</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-32.70140838623047</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>-5.474647755340023</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-0.02923721226595877</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>3.930300022585936</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>23.85481452941895</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3514032363891601</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-14.82476615905762</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.350842246564774</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.508822642393016</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.570750523421729</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-12.4519100189209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-15.55856132507324</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-9.169242858886721</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.041599551499903</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.251372620210817</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.606606071278196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>23.85086059570312</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-22.51275253295898</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.36398124694824</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.526515125470683</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.61241545313501</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.543736482070679</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.659902095794678</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.291859149932861</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-6.011741161346436</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.028566198833909</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.9918887261616698</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-6.872307486453308</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>32.19543075561523</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-80.94894409179688</v>
+      </c>
+      <c r="E29" t="n">
+        <v>22.37196731567383</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.376901606381959</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.241255387916403</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1712141006680019</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-18.56385040283203</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.148910522460938</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-19.82358169555664</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-8.190219378067249</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-11.05336972818532</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1851687067646206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-14.20774078369141</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.775349617004394</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-14.13762283325195</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4136780055901301</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-15.04960784669652</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.795090385412704</v>
       </c>
     </row>
   </sheetData>
